--- a/Supplements/final-project-list&order.xlsx
+++ b/Supplements/final-project-list&order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/final project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC51464-5F27-9E42-8EE3-F04435C61D34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091A8026-EB10-D544-A058-D2AACB2D3A85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{80CC9DEA-CB6F-9048-AC8C-3192A9D6F0CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{80CC9DEA-CB6F-9048-AC8C-3192A9D6F0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>刘巍，刘喆，刘子玮，欧阳凯，穆晨旗</t>
+  </si>
+  <si>
+    <t>张家豪，李新锐，颜彬，赵彬琦，周睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA0817-BB40-DF42-8294-E45341466A7A}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -812,12 +816,23 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5">
         <v>43641</v>
       </c>
     </row>
